--- a/biology/Médecine/Tachypnée/Tachypnée.xlsx
+++ b/biology/Médecine/Tachypnée/Tachypnée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tachypn%C3%A9e</t>
+          <t>Tachypnée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tachypnée, de tachy- (rapide) et -pnée (respiration), désigne une augmentation de la fréquence respiratoire à volume courant normal, la ventilation pulmonaire est accélérée. La respiration au repos est de 12 à 18 mouvements respiratoires par minute chez un adulte et de 35 à 50 mouvements par minute chez un nourrisson.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tachypn%C3%A9e</t>
+          <t>Tachypnée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Signification physiologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tachypnée vise à compenser un besoin accru en oxygène, par exemple lors d'un effort physique. Le rapport entre les gaz sanguins reste cependant équilibré, au contraire de l'hyperventilation qui vise à corriger un excès de dioxyde de carbone sanguin.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tachypn%C3%A9e</t>
+          <t>Tachypnée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Risques de confusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tachypnée est à distinguer de la polypnée : contrairement à la tachypnée, la polypnée est une augmentation de la fréquence respiratoire avec diminution du volume courant (ventilation rapide et superficielle).
 </t>
